--- a/prg/Melodians.xlsx
+++ b/prg/Melodians.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\MyDev\GitHub\themelodians.github.io\prg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206224DC-3671-45C4-AA95-0A74E8B6049E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F42F8-2921-46C2-A127-1340F05E4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{CAC58496-FF61-44C5-A03D-381103AD403D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="273">
   <si>
     <t>Nummer</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t>https://www.melodians.ch/prg/songs/43_Tonight.docx</t>
+  </si>
+  <si>
+    <t>https://www.melodians.ch/prg/songs/41_Sereno.docx</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1422,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2361,6 +2364,9 @@
       </c>
       <c r="E44" t="s">
         <v>236</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="H44" t="s">
         <v>106</v>
@@ -2647,6 +2653,8 @@
     <hyperlink ref="G40" r:id="rId61" xr:uid="{EFE2CD1E-0260-4454-AFF6-2716BF5F794F}"/>
     <hyperlink ref="G42" r:id="rId62" xr:uid="{177D5B9F-6729-4F62-9E5F-51F7BF42D0E6}"/>
     <hyperlink ref="G43" r:id="rId63" xr:uid="{51717555-6765-4323-9B97-B4F0A16F0D4E}"/>
+    <hyperlink ref="G44" r:id="rId64" xr:uid="{BEE8893F-C9BD-4598-A215-34B1B90E843B}"/>
+    <hyperlink ref="G46" r:id="rId65" xr:uid="{54DFA0F8-B765-402A-AC8F-879E4172D107}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
